--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/SellerPriceBook.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/SellerPriceBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="161">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -469,13 +469,40 @@
     <t>Seller Price Book Home Page Close</t>
   </si>
   <si>
+    <t>There are no updates in price book</t>
+  </si>
+  <si>
+    <t>Pricebook details deleted successfully.</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Logout from the application</t>
+  </si>
+  <si>
+    <t>Verify if it is able to logout from the application</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>There are no updates in price book</t>
-  </si>
-  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Price Book is empty</t>
   </si>
 </sst>
 </file>
@@ -531,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="209">
+  <fills count="537">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,953 +601,2593 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -1613,7 +3280,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="316">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
@@ -1685,39 +3352,47 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="7" fontId="4" numFmtId="49" xfId="0">
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="10" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="4" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="1" numFmtId="49" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="15" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="17" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="33" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="19" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="21" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="23" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="25" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="27" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="29" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="34" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
@@ -1801,7 +3476,171 @@
     <xf applyFill="true" borderId="0" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="368" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="370" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="372" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="374" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="376" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="378" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="380" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="382" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="384" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="386" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="388" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="390" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="392" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="394" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="396" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="398" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="400" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="402" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="404" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="406" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="408" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="410" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="412" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="414" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="416" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="418" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="420" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="422" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="424" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="426" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="428" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="430" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="432" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="434" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="436" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="438" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="440" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="442" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="444" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="446" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="448" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="450" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="452" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="454" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="456" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="458" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="460" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="462" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="464" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="466" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="468" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="470" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="472" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="474" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="476" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="478" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="480" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="482" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="484" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="486" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="488" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="490" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="492" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="494" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="496" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="498" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="500" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="502" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="504" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="506" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="508" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="510" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="512" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="514" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="516" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="518" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="520" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="522" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="524" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="526" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="528" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="530" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="532" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="534" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="536" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2104,10 +3943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +4009,7 @@
       <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="286" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2184,7 +4023,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="290" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2198,7 +4037,7 @@
       <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="292" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2212,12 +4051,12 @@
       <c r="C7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="294" t="s">
         <v>113</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -2226,7 +4065,7 @@
       <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="296" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2240,7 +4079,7 @@
       <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="298" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2254,7 +4093,7 @@
       <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="300" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2282,7 +4121,7 @@
       <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="302" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2296,7 +4135,7 @@
       <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="304" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2310,7 +4149,7 @@
       <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="306" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2324,8 +4163,8 @@
       <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="140" t="s">
-        <v>151</v>
+      <c r="D15" s="308" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,7 +4177,7 @@
       <c r="C16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="311" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2352,7 +4191,21 @@
       <c r="C17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s" s="145">
+      <c r="D17" s="313" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s" s="315">
         <v>113</v>
       </c>
     </row>
@@ -2384,8 +4237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,7 +4328,7 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2488,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2507,7 +4360,7 @@
       <c r="C4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="285" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2543,7 +4396,7 @@
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="287" t="s">
         <v>113</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2712,7 +4565,7 @@
       <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="289" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2894,7 +4747,7 @@
       <c r="C2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="291" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -3009,7 +4862,7 @@
       <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="293" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -3158,7 +5011,7 @@
       <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="295" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -3230,10 +5083,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +5145,7 @@
       <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="297" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3329,7 +5182,7 @@
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>47</v>
@@ -3354,7 +5207,7 @@
       <c r="C4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="299" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3468,7 +5321,7 @@
       <c r="C8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="301" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3526,7 +5379,7 @@
       <c r="C10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="303" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3620,7 +5473,7 @@
       <c r="C12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="305" t="s">
         <v>113</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3676,8 +5529,8 @@
       <c r="C14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="139" t="s">
-        <v>151</v>
+      <c r="D14" s="307" t="s">
+        <v>113</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>114</v>
@@ -3729,7 +5582,7 @@
         <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>45</v>
@@ -3770,7 +5623,7 @@
       <c r="C16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="309" t="s">
         <v>113</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -3806,19 +5659,19 @@
       <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="13"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="3"/>
     </row>
     <row ht="30" r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -3830,13 +5683,13 @@
       <c r="C18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="310" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="35" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -3867,7 +5720,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="11"/>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G19" t="s">
@@ -3876,17 +5729,17 @@
       <c r="H19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="13"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -3898,7 +5751,7 @@
       <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="144" t="s">
+      <c r="D20" s="312" t="s">
         <v>113</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -3917,6 +5770,35 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="314" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
